--- a/data/trans_dic/P56$nadie-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Provincia-trans_dic.xlsx
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04510992508223768</v>
+        <v>0.04524241185455907</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03446666329572046</v>
+        <v>0.03440386725642362</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.5720691758872273</v>
+        <v>0.5716276963357503</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
@@ -751,20 +751,20 @@
         <v>1</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3678632613673921</v>
+        <v>0.3316919682195409</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3553156566584731</v>
+        <v>0.3639533725017898</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.751586819167362</v>
+        <v>0.7331933990598319</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3146857708135059</v>
+        <v>0.3181156974235213</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2303733912247498</v>
+        <v>0.2574788371127417</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.01330730465015376</v>
+        <v>0.01335000486153572</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01852417825607684</v>
+        <v>0.01834976929477887</v>
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.01013901464991778</v>
+        <v>0.01022984934688656</v>
       </c>
     </row>
     <row r="9">
@@ -859,29 +859,29 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.4015233655510703</v>
+        <v>0.4010638818324037</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.4213891646299374</v>
+        <v>0.4302936763260103</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1751235350934662</v>
+        <v>0.1615431571377683</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.1096808878419755</v>
+        <v>0.1094527016445028</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3150843370492027</v>
+        <v>0.3372837512535562</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1648589699910105</v>
+        <v>0.1669001688975002</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.08521872706892562</v>
+        <v>0.08303653619627291</v>
       </c>
     </row>
     <row r="10">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0797116940860714</v>
+        <v>0.07971169408607139</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07643571256721883</v>
@@ -951,7 +951,7 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.02949463425501119</v>
+        <v>0.0303340671761894</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.0223464602457391</v>
+        <v>0.03044293953460002</v>
       </c>
     </row>
     <row r="12">
@@ -973,23 +973,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.1546297448949107</v>
+        <v>0.2043205414877743</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4996264572744532</v>
+        <v>0.429623187637746</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.1592830358692813</v>
+        <v>0.1632729268093552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3737912663062061</v>
+        <v>0.3639572466757392</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.1252722952038258</v>
+        <v>0.1313850462652797</v>
       </c>
     </row>
     <row r="13">
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06178894182718255</v>
+        <v>0.06178894182718254</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2064863983910311</v>
@@ -1025,7 +1025,7 @@
         <v>0.3573131654430654</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02015964367946381</v>
+        <v>0.02015964367946382</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1667135888772424</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1488850836021054</v>
+        <v>0.1500515202761543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1104405105957074</v>
+        <v>0.1195989674684232</v>
       </c>
       <c r="N14" s="5" t="n">
         <v>0</v>
@@ -1089,31 +1089,31 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.3135309290888214</v>
+        <v>0.2575711394001794</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.60372107645336</v>
+        <v>0.5838742483884375</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.272216845721689</v>
+        <v>0.2585823532685255</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6037396983366697</v>
+        <v>0.5975587733906803</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1134224739300594</v>
+        <v>0.1065343245298599</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.478786742313</v>
+        <v>0.4805904659530283</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.151339925037114</v>
+        <v>0.1876458177347533</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4378773126288226</v>
+        <v>0.4596782556004189</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1123791283177746</v>
+        <v>0.1052096788475015</v>
       </c>
     </row>
     <row r="16">
@@ -1149,7 +1149,7 @@
         <v>0.09335885768805133</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04537571773789721</v>
+        <v>0.04537571773789722</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.05499131997419005</v>
+        <v>0.05437286838614547</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="K17" s="5" t="inlineStr"/>
       <c r="L17" s="5" t="n">
-        <v>0.04126457739862656</v>
+        <v>0.03687279897571926</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -1209,23 +1209,23 @@
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.4632114586108978</v>
+        <v>0.4310550512014204</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4383889694989039</v>
+        <v>0.4345912505876521</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1404115563446237</v>
+        <v>0.1403703017597247</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.3390276686640485</v>
+        <v>0.3477613897553338</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4206963916384409</v>
+        <v>0.4112161691978584</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1106334872664341</v>
+        <v>0.1052162514154882</v>
       </c>
     </row>
     <row r="19">
@@ -1261,7 +1261,7 @@
         <v>0.1586313635612762</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.09595134794515664</v>
+        <v>0.09595134794515661</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0</v>
@@ -1289,23 +1289,23 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04999311610258836</v>
+        <v>0.04940979068859317</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.04186387987514023</v>
+        <v>0.04144030307183353</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04617972107979316</v>
+        <v>0.0473203423148125</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="n">
-        <v>0.0538650502318946</v>
+        <v>0.05432735732745701</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06290038371002826</v>
+        <v>0.06271937135941832</v>
       </c>
     </row>
     <row r="21">
@@ -1318,26 +1318,26 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.4494590597235841</v>
+        <v>0.4494265035513174</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2720355677901564</v>
+        <v>0.2646966738025298</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.4009438173478712</v>
+        <v>0.3589912566844998</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1776537627247207</v>
+        <v>0.1888038339685703</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.3128277051721468</v>
+        <v>0.3341057911284999</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1734319338838778</v>
+        <v>0.1703229483456985</v>
       </c>
     </row>
     <row r="22">
@@ -1373,7 +1373,7 @@
         <v>0.1850844306616597</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.03977142687050294</v>
+        <v>0.03977142687050293</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.09808895856027712</v>
@@ -1385,7 +1385,7 @@
         <v>0.193375677555124</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.05863205555220885</v>
+        <v>0.05863205555220887</v>
       </c>
     </row>
     <row r="23">
@@ -1398,7 +1398,7 @@
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
-        <v>0.04904759220929867</v>
+        <v>0.04963155052592027</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1408,20 +1408,20 @@
       </c>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>0.07824402506661705</v>
+        <v>0.07895134903596022</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01268157720717019</v>
+        <v>0.01267278333691722</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="inlineStr"/>
       <c r="M23" s="5" t="n">
-        <v>0.1083377158306987</v>
+        <v>0.09868409331769623</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02290294876270161</v>
+        <v>0.0210766343813398</v>
       </c>
     </row>
     <row r="24">
@@ -1434,30 +1434,30 @@
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.4671231917316356</v>
+        <v>0.4768813259391061</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3687689347271744</v>
+        <v>0.375912438688995</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.3259154452350686</v>
+        <v>0.3486053045175018</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1212037131559755</v>
+        <v>0.1218103825715457</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4056134841144308</v>
+        <v>0.4064080745880571</v>
       </c>
       <c r="L24" s="5" t="inlineStr"/>
       <c r="M24" s="5" t="n">
-        <v>0.3315944274872673</v>
+        <v>0.3169562570179785</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1404181310642185</v>
+        <v>0.1232917724840289</v>
       </c>
     </row>
     <row r="25">
@@ -1505,7 +1505,7 @@
         <v>0.1557279531046998</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.02749530592182024</v>
+        <v>0.02749530592182025</v>
       </c>
     </row>
     <row r="26">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0418832598815333</v>
+        <v>0.04342087785306973</v>
       </c>
       <c r="D26" s="5" t="inlineStr"/>
       <c r="E26" s="5" t="inlineStr"/>
@@ -1527,25 +1527,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03518075857647281</v>
+        <v>0.0353094163251547</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05734347272088741</v>
+        <v>0.05732363515147706</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.008843212754852918</v>
+        <v>0.008784906716844478</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04755552724180216</v>
+        <v>0.05034977342420041</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02638863342805184</v>
+        <v>0.02790199468189912</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03936095907957836</v>
+        <v>0.04067657858082109</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.006695108521905353</v>
+        <v>0.006799103739600144</v>
       </c>
     </row>
     <row r="27">
@@ -1556,36 +1556,36 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3663510297763779</v>
+        <v>0.4184081760700558</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="n">
-        <v>0.1447707044314319</v>
+        <v>0.1422145887319093</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2668508766162336</v>
+        <v>0.233161220441952</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2981073968399391</v>
+        <v>0.3028538171920023</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4441338926019181</v>
+        <v>0.4471677722678585</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07813975113688899</v>
+        <v>0.07182466464804294</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2299303933402742</v>
+        <v>0.2311356723072947</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2425602019385759</v>
+        <v>0.2360922555141418</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3454267720488745</v>
+        <v>0.3493509960514544</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06432547328417929</v>
+        <v>0.07025296592925158</v>
       </c>
     </row>
     <row r="28">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03719940870885177</v>
+        <v>0.03638564029482375</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02797553798366722</v>
+        <v>0.03023741909789351</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.031105604697625</v>
+        <v>0.03145259013445022</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.03382630851117586</v>
+        <v>0.03438562214179337</v>
       </c>
     </row>
     <row r="30">
@@ -1688,40 +1688,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1071349755720877</v>
+        <v>0.1088952952503818</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06586212613972538</v>
+        <v>0.06720282034853467</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.08572784801071175</v>
+        <v>0.08491042897157507</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06825950954912456</v>
+        <v>0.06628058355422151</v>
       </c>
     </row>
     <row r="31">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4034</v>
+        <v>4031</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
@@ -2039,20 +2039,20 @@
         <v>2400</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7812</v>
+        <v>7044</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6534</v>
+        <v>6693</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>4449</v>
+        <v>4341</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8902</v>
+        <v>8999</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6525</v>
+        <v>7292</v>
       </c>
       <c r="N7" s="6" t="inlineStr"/>
     </row>
@@ -2169,17 +2169,17 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11">
@@ -2191,29 +2191,29 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4702</v>
+        <v>4696</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>6198</v>
+        <v>6329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6464</v>
+        <v>5963</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4904</v>
+        <v>4894</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6802</v>
+        <v>7281</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8015</v>
+        <v>8115</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>4925</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="12">
@@ -2327,7 +2327,7 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>989</v>
+        <v>1018</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>1149</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="15">
@@ -2349,23 +2349,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>2764</v>
+        <v>3652</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6122</v>
+        <v>5265</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>5343</v>
+        <v>5477</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5677</v>
+        <v>5527</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>6441</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="16">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3711</v>
+        <v>3740</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3858</v>
+        <v>4178</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0</v>
@@ -2509,31 +2509,31 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>2985</v>
+        <v>2452</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6529</v>
+        <v>6314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6113</v>
+        <v>5806</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15048</v>
+        <v>14894</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2362</v>
+        <v>2218</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6413</v>
+        <v>6437</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4713</v>
+        <v>5843</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15295</v>
+        <v>16057</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>3410</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="20">
@@ -2641,7 +2641,7 @@
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="K22" s="6" t="inlineStr"/>
       <c r="L22" s="6" t="n">
-        <v>1090</v>
+        <v>974</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
@@ -2673,23 +2673,23 @@
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>9125</v>
+        <v>8491</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5311</v>
+        <v>5265</v>
       </c>
       <c r="J23" s="6" t="n">
         <v>2417</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>8952</v>
+        <v>9183</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5432</v>
+        <v>5310</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2754</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="24">
@@ -2797,23 +2797,23 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1503</v>
+        <v>1540</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="inlineStr"/>
       <c r="M26" s="6" t="n">
-        <v>1773</v>
+        <v>1788</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3089</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="27">
@@ -2826,26 +2826,26 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4860</v>
+        <v>4859</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4504</v>
+        <v>4382</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>8863</v>
+        <v>7936</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5783</v>
+        <v>6146</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>10297</v>
+        <v>10998</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>8517</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="28">
@@ -2950,7 +2950,7 @@
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
@@ -2960,20 +2960,20 @@
       </c>
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="n">
-        <v>3357</v>
+        <v>3387</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="inlineStr"/>
       <c r="M30" s="6" t="n">
-        <v>6809</v>
+        <v>6202</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1524</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="31">
@@ -2986,30 +2986,30 @@
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>9318</v>
+        <v>9513</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5498</v>
+        <v>5604</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3953</v>
+        <v>2965</v>
       </c>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>13982</v>
+        <v>14956</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>6258</v>
+        <v>6289</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3707</v>
+        <v>3715</v>
       </c>
       <c r="L31" s="6" t="inlineStr"/>
       <c r="M31" s="6" t="n">
-        <v>20841</v>
+        <v>19921</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>9344</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="32">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="6" t="inlineStr"/>
@@ -3123,25 +3123,25 @@
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1305</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2337</v>
+        <v>2474</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1028</v>
+        <v>1087</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1254</v>
+        <v>1296</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35">
@@ -3152,36 +3152,36 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7038</v>
+        <v>8038</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="n">
-        <v>3431</v>
+        <v>3370</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>7987</v>
+        <v>6979</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>8962</v>
+        <v>9105</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>10108</v>
+        <v>10178</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>5196</v>
+        <v>4776</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>11300</v>
+        <v>11359</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>9447</v>
+        <v>9196</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>11007</v>
+        <v>11132</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>5802</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="36">
@@ -3284,40 +3284,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>7635</v>
+        <v>7468</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>7705</v>
+        <v>8328</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>8826</v>
+        <v>8925</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>12989</v>
+        <v>13204</v>
       </c>
     </row>
     <row r="39">
@@ -3328,40 +3328,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>21989</v>
+        <v>22350</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>18140</v>
+        <v>18510</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>24325</v>
+        <v>24093</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>26212</v>
+        <v>25452</v>
       </c>
     </row>
     <row r="40">
